--- a/trend_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
+++ b/trend_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.344839170293208</v>
+        <v>0.655160829706792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.820988628507924</v>
+        <v>0.179011371492076</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5556449491140411</v>
+        <v>0.444355050885959</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>

--- a/trend_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
+++ b/trend_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9058194598673051</v>
+        <v>0.999400519145207</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.916666666666667</v>
+        <v>0.76</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.315</v>
+        <v>47.75</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0405598880075024</v>
+        <v>-11.1811224489796</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0082339568841124</v>
+        <v>-16.6146606485932</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09547465594505181</v>
+        <v>-5.79948631491069</v>
       </c>
       <c r="N2" t="n">
-        <v>12.8761549230166</v>
+        <v>-23.4159632439363</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.655160829706792</v>
+        <v>0.135631920212717</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.947368421052632</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.46</v>
+        <v>0.315</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0562484438638284</v>
+        <v>-0.0237175324675325</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.190630161135586</v>
+        <v>-0.064009444512748</v>
       </c>
       <c r="M3" t="n">
-        <v>0.305390489053366</v>
+        <v>0.0157036176165171</v>
       </c>
       <c r="N3" t="n">
-        <v>0.490824117485414</v>
+        <v>-7.52937538651824</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -740,14 +740,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0350871750709564</v>
+        <v>0.006728903991542</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.482758620689655</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.019</v>
+        <v>11.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00082249479682</v>
+        <v>-0.283005244555923</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.472480462289754</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0020049642372671</v>
+        <v>-0.103224162769117</v>
       </c>
       <c r="N4" t="n">
-        <v>4.32891998326363</v>
+        <v>-2.48250214522739</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -819,7 +819,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.930022168990286</v>
+        <v>0.729497448248176</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.879310344827586</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>420</v>
+        <v>0.0195</v>
       </c>
       <c r="K5" t="n">
-        <v>-76.5923984272608</v>
+        <v>-0.0004366407650926</v>
       </c>
       <c r="L5" t="n">
-        <v>-153.026516667633</v>
+        <v>-0.0018769270298047</v>
       </c>
       <c r="M5" t="n">
-        <v>7.75301742208143</v>
+        <v>0.0007287240362281999</v>
       </c>
       <c r="N5" t="n">
-        <v>-18.236285339824</v>
+        <v>-2.23918341073153</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.69532358812416</v>
+        <v>0.706567120927013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.423076923076923</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H6" t="n">
-        <v>0.692307692307692</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0134354387062421</v>
+        <v>437.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-24.6662337662338</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0018500091166269</v>
+        <v>-100.262157302429</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>59.4788705611384</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-5.63799628942486</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.685439137378011</v>
+        <v>0.902503481299637</v>
       </c>
       <c r="G7" t="n">
-        <v>0.258620689655172</v>
+        <v>0.351851851851852</v>
       </c>
       <c r="H7" t="n">
-        <v>0.258620689655172</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005</v>
+        <v>0.0166902947010892</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0003558866299925</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0008553864168618</v>
+        <v>-0.0035994629073764</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-2.13229686093766</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1104,14 +1104,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.308964725219256</v>
+        <v>0.238612621277168</v>
       </c>
       <c r="G8" t="n">
-        <v>0.189655172413793</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="H8" t="n">
-        <v>0.775862068965517</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.224</v>
+        <v>0.005</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0022620767960363</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0204667737448852</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0315078065721728</v>
+        <v>0.000498153240169</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00985571251622</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.179011371492076</v>
+        <v>0.0021615556127657</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H9" t="n">
-        <v>0.75</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>7.835</v>
+        <v>0.2305</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0347729815938088</v>
+        <v>0.025468112244898</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.109375363776376</v>
+        <v>0.0131016615706939</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0234798670220462</v>
+        <v>0.0451401599223952</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.443815974394497</v>
+        <v>11.0490725574395</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1272,7 +1272,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1282,14 +1286,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1297,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.228651807422663</v>
+        <v>0.101592946578093</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0689655172413793</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.793103448275862</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.253</v>
+        <v>7.85</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0075257554945055</v>
+        <v>-0.054093856292517</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0063293923880413</v>
+        <v>-0.137793294426335</v>
       </c>
       <c r="M10" t="n">
-        <v>0.020618463697106</v>
+        <v>0.0172363667608723</v>
       </c>
       <c r="N10" t="n">
-        <v>2.97460691482431</v>
+        <v>-0.6890937107327</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1359,11 +1363,7 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.872717602646424</v>
+        <v>0.0038931742079587</v>
       </c>
       <c r="G11" t="n">
-        <v>0.103448275862069</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H11" t="n">
-        <v>0.344827586206897</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>0.2565</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.500119208021278</v>
+        <v>0.0261481673738377</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.47054343762743</v>
+        <v>0.017193729880882</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0419093417982516</v>
       </c>
       <c r="N11" t="n">
-        <v>-11.1137601782506</v>
+        <v>10.1942172997418</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.103812346001419</v>
+        <v>0.0153271193164372</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.793103448275862</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.825</v>
+        <v>0.845</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0200686813186813</v>
+        <v>0.035839213533282</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0077583521301725</v>
+        <v>0.0123996271814523</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0500152968757485</v>
+        <v>0.0640037677049595</v>
       </c>
       <c r="N12" t="n">
-        <v>2.43256743256743</v>
+        <v>4.24132704535882</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.277386939926413</v>
+        <v>0.0589688747817105</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.672413793103448</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.073</v>
+        <v>0.0775</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0013731203007518</v>
+        <v>0.0037270408163265</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0024858289153691</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0053480457469805</v>
+        <v>0.0070763924555632</v>
       </c>
       <c r="N13" t="n">
-        <v>1.88098671335874</v>
+        <v>4.8090849242923</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8949438362350171</v>
+        <v>0.0607942317438832</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1673,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.355</v>
+        <v>6.13</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.47945035321821</v>
+        <v>0.548125858516483</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.45859722671889</v>
+        <v>-0.136203548982889</v>
       </c>
       <c r="M14" t="n">
-        <v>0.249231650396151</v>
+        <v>1.35007829366614</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.95332125524202</v>
+        <v>8.941694266174281</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.005677398624792</v>
+        <v>0.993676560403712</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0307692307692308</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.846153846153846</v>
+        <v>0.65</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.34</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0564839150061188</v>
+        <v>-4.18165946493845</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.114373108232926</v>
+        <v>-6.88696181271807</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0161360905354347</v>
+        <v>-1.35767527360704</v>
       </c>
       <c r="N15" t="n">
-        <v>-16.6129161782702</v>
+        <v>-8.363318929876909</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01260133949692</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0289855072463768</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8405797101449271</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.879310344827586</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.98</v>
+        <v>0.32</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0033432494279175</v>
+        <v>-0.0327054171291224</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.09053010647214189</v>
+        <v>-0.0688386154278114</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09808033120045451</v>
+        <v>-0.0102814123568881</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0304485375948775</v>
+        <v>-10.2204428528507</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.009543662550664101</v>
+        <v>0.224432037530865</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.322033898305085</v>
+        <v>0.905172413793103</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.017</v>
+        <v>10.965</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0005359873221041</v>
+        <v>-0.0317341750715035</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001457772617213</v>
+        <v>-0.119076100438046</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0011394677985929</v>
+        <v>0.046846699239352</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1528666006125</v>
+        <v>-0.289413361345221</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.698021231535796</v>
+        <v>0.0030259208426514</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H18" t="n">
-        <v>0.813559322033898</v>
+        <v>0.313559322033898</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>492</v>
+        <v>0.017</v>
       </c>
       <c r="K18" t="n">
-        <v>-6.48181011535049</v>
+        <v>0.000664695177434</v>
       </c>
       <c r="L18" t="n">
-        <v>-30.727816388619</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="M18" t="n">
-        <v>19.396172026643</v>
+        <v>0.0011084993352798</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.31744108035579</v>
+        <v>3.90997163196489</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.06646350327160259</v>
+        <v>0.59557655851004</v>
       </c>
       <c r="G19" t="n">
-        <v>0.513761467889908</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H19" t="n">
-        <v>0.55045871559633</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0101751012104571</v>
+        <v>492</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-2.70555555555556</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-25.7301585289702</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001320869775428</v>
+        <v>23.8576230585913</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-0.549909665763324</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,43 +2192,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.855567381864493</v>
+        <v>0.0115924830235698</v>
       </c>
       <c r="G20" t="n">
-        <v>0.177966101694915</v>
+        <v>0.477064220183486</v>
       </c>
       <c r="H20" t="n">
-        <v>0.186440677966102</v>
+        <v>0.587155963302752</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006</v>
+        <v>0.0114780799781786</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-8.23654125284044e-05</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0009530805188068</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0157613215608468</v>
+        <v>0.775398676457125</v>
       </c>
       <c r="G21" t="n">
-        <v>0.194915254237288</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="H21" t="n">
-        <v>0.76271186440678</v>
+        <v>0.177966101694915</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.211</v>
+        <v>0.0055</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0027014592252271</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0069508260823355</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.28031242901759</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.444355050885959</v>
+        <v>0.0005330857597115</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="H22" t="n">
-        <v>0.646017699115044</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.8</v>
+        <v>0.2305</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.001661737943585</v>
+        <v>0.0060859166720853</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0258860583491254</v>
+        <v>0.0021203764938035</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0132911803937203</v>
+        <v>0.0122818768984125</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0213043326100646</v>
+        <v>2.64031092064439</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2451,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.008984346168423399</v>
+        <v>0.327213094415276</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.745762711864407</v>
+        <v>0.646017699115044</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.253</v>
+        <v>7.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0050171703296703</v>
+        <v>-0.0074897470950103</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0013994252873563</v>
+        <v>-0.0334368173376039</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009792758641573199</v>
+        <v>0.0133227559407256</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98307127654954</v>
+        <v>-0.09602239865397839</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2538,11 +2542,7 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.585001521682192</v>
+        <v>0.0010395933243991</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0508474576271186</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H24" t="n">
-        <v>0.296610169491525</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.2685</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0081280314261659</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.240290466746872</v>
+        <v>0.0030103021978022</v>
       </c>
       <c r="M24" t="n">
-        <v>0.142564402810304</v>
+        <v>0.0159822132917131</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.02719978628152</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.068789630435345</v>
+        <v>0.0355905098058575</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.686440677966102</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8265</v>
+        <v>0.855</v>
       </c>
       <c r="K25" t="n">
-        <v>0.009907720569299699</v>
+        <v>0.009974967929115799</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.015995279417856</v>
+        <v>0.0154296554520939</v>
       </c>
       <c r="N25" t="n">
-        <v>1.19875626972773</v>
+        <v>1.16666291568607</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.07105062192813021</v>
+        <v>0.0021384443891894</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.601694915254237</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0725</v>
+        <v>0.073</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001232564679415</v>
+        <v>0.0021717108666801</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0001307797342893</v>
+        <v>0.0010001710578278</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0026497000910728</v>
+        <v>0.0033484354399906</v>
       </c>
       <c r="N26" t="n">
-        <v>1.7000892129863</v>
+        <v>2.97494639271255</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.198962981239316</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.957627118644068</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.575</v>
+        <v>6.425</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0099795081967213</v>
+        <v>0.167258233863837</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.221994017230752</v>
+        <v>-0.128195240225174</v>
       </c>
       <c r="M27" t="n">
-        <v>0.175430981180315</v>
+        <v>0.369347368261016</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.179004631331324</v>
+        <v>2.60324099398969</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">

--- a/trend_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
+++ b/trend_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -130,43 +130,46 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -648,31 +651,31 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.999400519145207</v>
+        <v>0.976670047646313</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.76</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>47.75</v>
+        <v>42</v>
       </c>
       <c r="K2">
-        <v>-11.1811224489796</v>
+        <v>-7.86208487084871</v>
       </c>
       <c r="L2">
-        <v>-16.6146606485932</v>
+        <v>-15.0469098125923</v>
       </c>
       <c r="M2">
-        <v>-5.79948631491069</v>
+        <v>-1.42129107929385</v>
       </c>
       <c r="N2">
-        <v>-23.4159632439363</v>
+        <v>-18.7192496924969</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -687,19 +690,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,31 +722,31 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>0.135631920212717</v>
+        <v>0.010837565278694</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.954545454545455</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.315</v>
+        <v>0.225</v>
       </c>
       <c r="K3">
-        <v>-0.0237175324675325</v>
+        <v>-0.0634921961208726</v>
       </c>
       <c r="L3">
-        <v>-0.064009444512748</v>
+        <v>-0.112088307000601</v>
       </c>
       <c r="M3">
-        <v>0.0157036176165171</v>
+        <v>-0.0202762304022928</v>
       </c>
       <c r="N3">
-        <v>-7.52937538651824</v>
+        <v>-28.2187538314989</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -758,19 +761,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,31 +793,31 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <v>0.006728903991542</v>
+        <v>0.049232058468483</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9649122807017541</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.4</v>
+        <v>11.24</v>
       </c>
       <c r="K4">
-        <v>-0.283005244555923</v>
+        <v>-0.203090752476892</v>
       </c>
       <c r="L4">
-        <v>-0.472480462289754</v>
+        <v>-0.414025713040969</v>
       </c>
       <c r="M4">
-        <v>-0.103224162769117</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.48250214522739</v>
+        <v>-1.8068572284421</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -829,19 +832,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -855,37 +858,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
       <c r="F5">
-        <v>0.729497448248176</v>
+        <v>0.58798893434906</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0195</v>
+        <v>0.018</v>
       </c>
       <c r="K5">
-        <v>-0.0004366407650926</v>
+        <v>-0.0002503437589257</v>
       </c>
       <c r="L5">
-        <v>-0.0018769270298047</v>
+        <v>-0.0025324529241813</v>
       </c>
       <c r="M5">
-        <v>0.0007287240362281999</v>
+        <v>0.0012482911825017</v>
       </c>
       <c r="N5">
-        <v>-2.23918341073153</v>
+        <v>-1.39079866069863</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
@@ -900,19 +903,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,7 +935,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.706567120927013</v>
+        <v>0.17039138703598</v>
       </c>
       <c r="G6">
         <v>0.0344827586206897</v>
@@ -944,25 +947,25 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>437.5</v>
+        <v>427.4</v>
       </c>
       <c r="K6">
-        <v>-24.6662337662338</v>
+        <v>43.83</v>
       </c>
       <c r="L6">
-        <v>-100.262157302429</v>
+        <v>-29.2360971168011</v>
       </c>
       <c r="M6">
-        <v>59.4788705611384</v>
+        <v>118.564802731293</v>
       </c>
       <c r="N6">
-        <v>-5.63799628942486</v>
+        <v>10.2550304164717</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>1819553.54</v>
@@ -971,19 +974,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1000,34 +1003,34 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0.902503481299637</v>
+        <v>0.151040221152621</v>
       </c>
       <c r="G7">
-        <v>0.351851851851852</v>
+        <v>0.327272727272727</v>
       </c>
       <c r="H7">
-        <v>0.7037037037037041</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0166902947010892</v>
+        <v>0.0169922189885078</v>
       </c>
       <c r="K7">
-        <v>-0.0003558866299925</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0035994629073764</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0026766930852766</v>
       </c>
       <c r="N7">
-        <v>-2.13229686093766</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
@@ -1042,19 +1045,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1071,13 +1074,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>0.238612621277168</v>
+        <v>0.807500372431087</v>
       </c>
       <c r="G8">
-        <v>0.224137931034483</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="H8">
         <v>0.275862068965517</v>
@@ -1086,16 +1089,16 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-0.0008322396215949</v>
       </c>
       <c r="M8">
-        <v>0.000498153240169</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1104,7 +1107,7 @@
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1819553.54</v>
@@ -1113,19 +1116,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,37 +1148,37 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>0.0021615556127657</v>
+        <v>0.0519443296589569</v>
       </c>
       <c r="G9">
-        <v>0.137931034482759</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H9">
-        <v>0.827586206896552</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.2305</v>
+        <v>0.24</v>
       </c>
       <c r="K9">
-        <v>0.025468112244898</v>
+        <v>0.0115154861585783</v>
       </c>
       <c r="L9">
-        <v>0.0131016615706939</v>
+        <v>-0.0002205262130795</v>
       </c>
       <c r="M9">
-        <v>0.0451401599223952</v>
+        <v>0.0321209988683609</v>
       </c>
       <c r="N9">
-        <v>11.0490725574395</v>
+        <v>4.79811923274095</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1819553.54</v>
@@ -1184,19 +1187,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,37 +1219,37 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>0.101592946578093</v>
+        <v>0.935105871067978</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.821428571428571</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="K10">
-        <v>-0.054093856292517</v>
+        <v>0.0697304867076675</v>
       </c>
       <c r="L10">
-        <v>-0.137793294426335</v>
+        <v>-0.0055436559061532</v>
       </c>
       <c r="M10">
-        <v>0.0172363667608723</v>
+        <v>0.125011160714286</v>
       </c>
       <c r="N10">
-        <v>-0.6890937107327</v>
+        <v>0.887156319435973</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1819553.54</v>
@@ -1255,16 +1258,16 @@
         <v>5574964.69</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,37 +1287,37 @@
         <v>37</v>
       </c>
       <c r="F11">
-        <v>0.0038931742079587</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G11">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.896551724137931</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0.2565</v>
       </c>
       <c r="K11">
-        <v>0.0261481673738377</v>
+        <v>0.0148779986024954</v>
       </c>
       <c r="L11">
-        <v>0.017193729880882</v>
+        <v>-0.0042484496343573</v>
       </c>
       <c r="M11">
-        <v>0.0419093417982516</v>
+        <v>0.0367035811968004</v>
       </c>
       <c r="N11">
-        <v>10.1942172997418</v>
+        <v>5.80038931871166</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1819553.54</v>
@@ -1323,19 +1326,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,37 +1358,37 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>0.0153271193164372</v>
+        <v>0.559088575167588</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.775862068965517</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="K12">
-        <v>0.035839213533282</v>
+        <v>-0.0012542925824175</v>
       </c>
       <c r="L12">
-        <v>0.0123996271814523</v>
+        <v>-0.0351201923076922</v>
       </c>
       <c r="M12">
-        <v>0.0640037677049595</v>
+        <v>0.030103021978022</v>
       </c>
       <c r="N12">
-        <v>4.24132704535882</v>
+        <v>-0.145847974699719</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1819553.54</v>
@@ -1394,19 +1397,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,37 +1429,37 @@
         <v>37</v>
       </c>
       <c r="F13">
-        <v>0.0589688747817105</v>
+        <v>0.0217122583783434</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.741379310344828</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0775</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K13">
-        <v>0.0037270408163265</v>
+        <v>0.0070240384615384</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0014987520198327</v>
       </c>
       <c r="M13">
-        <v>0.0070763924555632</v>
+        <v>0.013474152447103</v>
       </c>
       <c r="N13">
-        <v>4.8090849242923</v>
+        <v>8.26357466063347</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q13">
         <v>1819553.54</v>
@@ -1465,19 +1468,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,13 +1494,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
       <c r="F14">
-        <v>0.0607942317438832</v>
+        <v>0.0097879400220273</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1509,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.13</v>
+        <v>6.205</v>
       </c>
       <c r="K14">
-        <v>0.548125858516483</v>
+        <v>1.01625280478684</v>
       </c>
       <c r="L14">
-        <v>-0.136203548982889</v>
+        <v>0.316136910152583</v>
       </c>
       <c r="M14">
-        <v>1.35007829366614</v>
+        <v>1.6969355768774</v>
       </c>
       <c r="N14">
-        <v>8.941694266174281</v>
+        <v>16.3779662334704</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
@@ -1536,19 +1539,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,13 +1571,13 @@
         <v>37</v>
       </c>
       <c r="F15">
-        <v>0.993676560403712</v>
+        <v>0.991228450607653</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.65</v>
+        <v>0.684782608695652</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1583,22 +1586,22 @@
         <v>50</v>
       </c>
       <c r="K15">
-        <v>-4.18165946493845</v>
+        <v>-4.8046119905335</v>
       </c>
       <c r="L15">
-        <v>-6.88696181271807</v>
+        <v>-8.351066349011271</v>
       </c>
       <c r="M15">
-        <v>-1.35767527360704</v>
+        <v>-1.35937642755027</v>
       </c>
       <c r="N15">
-        <v>-8.363318929876909</v>
+        <v>-9.609223981066989</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1819553.54</v>
@@ -1607,19 +1610,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,40 +1639,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.01260133949692</v>
+        <v>0.450410122992828</v>
       </c>
       <c r="G16">
-        <v>0.0289855072463768</v>
+        <v>0.0317460317460317</v>
       </c>
       <c r="H16">
-        <v>0.8405797101449271</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.32</v>
+        <v>0.265</v>
       </c>
       <c r="K16">
-        <v>-0.0327054171291224</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0688386154278114</v>
+        <v>-0.017224155909225</v>
       </c>
       <c r="M16">
-        <v>-0.0102814123568881</v>
+        <v>0.0138185562322764</v>
       </c>
       <c r="N16">
-        <v>-10.2204428528507</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1819553.54</v>
@@ -1678,19 +1681,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,37 +1713,37 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>0.224432037530865</v>
+        <v>0.872014438823363</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.905172413793103</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.965</v>
+        <v>10.92</v>
       </c>
       <c r="K17">
-        <v>-0.0317341750715035</v>
+        <v>0.045700903044924</v>
       </c>
       <c r="L17">
-        <v>-0.119076100438046</v>
+        <v>-0.01982266196157</v>
       </c>
       <c r="M17">
-        <v>0.046846699239352</v>
+        <v>0.118441659726653</v>
       </c>
       <c r="N17">
-        <v>-0.289413361345221</v>
+        <v>0.418506438140329</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q17">
         <v>1819553.54</v>
@@ -1749,19 +1752,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1781,37 +1784,37 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0030259208426514</v>
+        <v>0.008809139145084501</v>
       </c>
       <c r="G18">
         <v>0.0254237288135593</v>
       </c>
       <c r="H18">
-        <v>0.313559322033898</v>
+        <v>0.347457627118644</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.017</v>
+        <v>0.0175</v>
       </c>
       <c r="K18">
-        <v>0.000664695177434</v>
+        <v>0.0006248939672595</v>
       </c>
       <c r="L18">
-        <v>0.0002496582365003</v>
+        <v>0.0001716314320599</v>
       </c>
       <c r="M18">
-        <v>0.0011084993352798</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N18">
-        <v>3.90997163196489</v>
+        <v>3.57082267005456</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1819553.54</v>
@@ -1820,19 +1823,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,37 +1855,37 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.59557655851004</v>
+        <v>0.805928479011919</v>
       </c>
       <c r="G19">
         <v>0.0338983050847458</v>
       </c>
       <c r="H19">
-        <v>0.796610169491525</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>492</v>
+        <v>580</v>
       </c>
       <c r="K19">
-        <v>-2.70555555555556</v>
+        <v>-13.0446428571429</v>
       </c>
       <c r="L19">
-        <v>-25.7301585289702</v>
+        <v>-41.4121093919337</v>
       </c>
       <c r="M19">
-        <v>23.8576230585913</v>
+        <v>12.8354051120829</v>
       </c>
       <c r="N19">
-        <v>-0.549909665763324</v>
+        <v>-2.2490763546798</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>1819553.54</v>
@@ -1891,19 +1894,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1920,40 +1923,40 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>0.0115924830235698</v>
+        <v>0.0027613442410623</v>
       </c>
       <c r="G20">
-        <v>0.477064220183486</v>
+        <v>0.412844036697248</v>
       </c>
       <c r="H20">
-        <v>0.587155963302752</v>
+        <v>0.651376146788991</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20">
-        <v>0.0114780799781786</v>
+        <v>0.0130616446841792</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.0005283648677496</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0009530805188068</v>
+        <v>0.0013919158864387</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>4.04516338122107</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1819553.54</v>
@@ -1962,19 +1965,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,40 +1994,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
-        <v>0.775398676457125</v>
+        <v>0.998516020540234</v>
       </c>
       <c r="G21">
-        <v>0.186440677966102</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="H21">
-        <v>0.177966101694915</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.0055</v>
+        <v>0.005</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0001545643922868</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-0.0003748991088015</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-3.09128784573772</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1819553.54</v>
@@ -2033,19 +2036,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,37 +2068,37 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>0.0005330857597115</v>
+        <v>0.0204341532360322</v>
       </c>
       <c r="G22">
-        <v>0.169491525423729</v>
+        <v>0.144067796610169</v>
       </c>
       <c r="H22">
-        <v>0.779661016949153</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.2305</v>
+        <v>0.2375</v>
       </c>
       <c r="K22">
-        <v>0.0060859166720853</v>
+        <v>0.0030152040605998</v>
       </c>
       <c r="L22">
-        <v>0.0021203764938035</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0122818768984125</v>
+        <v>0.0063225454025415</v>
       </c>
       <c r="N22">
-        <v>2.64031092064439</v>
+        <v>1.26955960446308</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>1819553.54</v>
@@ -2104,19 +2107,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2136,37 +2139,37 @@
         <v>37</v>
       </c>
       <c r="F23">
-        <v>0.327213094415276</v>
+        <v>0.885599766821763</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.646017699115044</v>
+        <v>0.663716814159292</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="K23">
-        <v>-0.0074897470950103</v>
+        <v>0.0149556414922657</v>
       </c>
       <c r="L23">
-        <v>-0.0334368173376039</v>
+        <v>-0.0087565976751085</v>
       </c>
       <c r="M23">
-        <v>0.0133227559407256</v>
+        <v>0.0350946236132694</v>
       </c>
       <c r="N23">
-        <v>-0.09602239865397839</v>
+        <v>0.191493489017486</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1819553.54</v>
@@ -2175,16 +2178,16 @@
         <v>5574964.69</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,37 +2207,37 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>0.0010395933243991</v>
+        <v>0.0281814237413962</v>
       </c>
       <c r="G24">
         <v>0.0677966101694915</v>
       </c>
       <c r="H24">
-        <v>0.788135593220339</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.2685</v>
+        <v>0.2725</v>
       </c>
       <c r="K24">
-        <v>0.0081280314261659</v>
+        <v>0.0037422313960027</v>
       </c>
       <c r="L24">
-        <v>0.0030103021978022</v>
+        <v>0.0004093602636834</v>
       </c>
       <c r="M24">
-        <v>0.0159822132917131</v>
+        <v>0.008198872600901399</v>
       </c>
       <c r="N24">
-        <v>3.02719978628152</v>
+        <v>1.37329592513861</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1819553.54</v>
@@ -2243,19 +2246,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,37 +2278,37 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <v>0.0355905098058575</v>
+        <v>0.702180630430537</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.652542372881356</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.855</v>
+        <v>0.865</v>
       </c>
       <c r="K25">
-        <v>0.009974967929115799</v>
+        <v>-0.0033447802197802</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.0149711576854882</v>
       </c>
       <c r="M25">
-        <v>0.0154296554520939</v>
+        <v>0.0066509700445983</v>
       </c>
       <c r="N25">
-        <v>1.16666291568607</v>
+        <v>-0.386679794194245</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1819553.54</v>
@@ -2314,19 +2317,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,37 +2349,37 @@
         <v>37</v>
       </c>
       <c r="F26">
-        <v>0.0021384443891894</v>
+        <v>0.0767189417052863</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.610169491525424</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.073</v>
+        <v>0.0785</v>
       </c>
       <c r="K26">
-        <v>0.0021717108666801</v>
+        <v>0.0012512918824596</v>
       </c>
       <c r="L26">
-        <v>0.0010001710578278</v>
+        <v>-0.0002039656384467</v>
       </c>
       <c r="M26">
-        <v>0.0033484354399906</v>
+        <v>0.0031986863711001</v>
       </c>
       <c r="N26">
-        <v>2.97494639271255</v>
+        <v>1.59400239803777</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1819553.54</v>
@@ -2385,19 +2388,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,7 +2420,7 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>0.198962981239316</v>
+        <v>0.5</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2429,25 +2432,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>6.425</v>
+        <v>7.05</v>
       </c>
       <c r="K27">
-        <v>0.167258233863837</v>
+        <v>0.0133791208791209</v>
       </c>
       <c r="L27">
-        <v>-0.128195240225174</v>
+        <v>-0.271607171031225</v>
       </c>
       <c r="M27">
-        <v>0.369347368261016</v>
+        <v>0.336031066872153</v>
       </c>
       <c r="N27">
-        <v>2.60324099398969</v>
+        <v>0.18977476424285</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q27">
         <v>1819553.54</v>
@@ -2456,19 +2459,19 @@
         <v>5574964.69</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
